--- a/biology/Médecine/Intoxication_aux_huiles_minérales/Intoxication_aux_huiles_minérales.xlsx
+++ b/biology/Médecine/Intoxication_aux_huiles_minérales/Intoxication_aux_huiles_minérales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Intoxication_aux_huiles_min%C3%A9rales</t>
+          <t>Intoxication_aux_huiles_minérales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une intoxication aux huiles minérales peut entraîner une  maladie professionnelle en France, sous certaines conditions.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Intoxication_aux_huiles_min%C3%A9rales</t>
+          <t>Intoxication_aux_huiles_minérales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Est également pris en charge au titre de maladie professionnelle l'épithélioma primitif de la peau décrit dans le tableau no 36 bis du Régime Général "Affections cancéreuses provoquées par les dérivés suivants du pétrole : huiles minérales peu ou non raffinées et huiles minérales régénérées utilisées dans les opérations d'usinage et de traitement des métaux, extraits aromatiques, résidus de craquage, huiles moteur usagées anssi que suies de combustion des produits pétroliers". 
-Régime agricole
-Données professionnelles
-Données médicales
-Toxicologie alimentaire
-L’AFSSA dans un avis du 24 avril 2008 (complété le 2 mai, et le 7 mai 2008) rappelle que la dose journalière admissible, DJA (établie par le JECFA (Comité mixte FAO/OMS d'experts des additifs alimentaires) est de 20 mg/kg pc/j pour de l’huile minérale de forte viscosité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Intoxication_aux_huiles_minérales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_aux_huiles_min%C3%A9rales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Intoxication_aux_huiles_minérales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_aux_huiles_min%C3%A9rales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Toxicologie alimentaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’AFSSA dans un avis du 24 avril 2008 (complété le 2 mai, et le 7 mai 2008) rappelle que la dose journalière admissible, DJA (établie par le JECFA (Comité mixte FAO/OMS d'experts des additifs alimentaires) est de 20 mg/kg pc/j pour de l’huile minérale de forte viscosité.
 </t>
         </is>
       </c>
